--- a/output/xlsx/UC001 - Solicitar Diárias--GTP-.xlsx
+++ b/output/xlsx/UC001 - Solicitar Diárias--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="85">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.2.5</t>
+    <t>1.3</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -41,7 +41,7 @@
     <t>Reduced (Greedy Heuristic - Transition Pair Coverage)</t>
   </si>
   <si>
-    <t>Size: 8 test case(s))</t>
+    <t>Size: 11 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -164,6 +164,12 @@
     <t>Chefe/Beneficiário Clica em confirmar.</t>
   </si>
   <si>
+    <t>SYSTEM Exibe uma mensagem de alerta informando sobre o estouro do limite de 10 diárias por mês.</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Fecha o alerta</t>
+  </si>
+  <si>
     <t>SYSTEM Calcula o valor da(s) diária(s) com as informações do formulário.</t>
   </si>
   <si>
@@ -203,55 +209,64 @@
     <t>Chefe/Beneficiário Informa o nome social do beneficiário da(s) diária(s).</t>
   </si>
   <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Escolhe o tipo de viagem nacional - fora do estado (interestadual).</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a opção escolhida: viagem nacional - fora do estado (interestadual).</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário Escolhe o estado.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a opção escolhida: estado.</t>
+  </si>
+  <si>
     <t>Chefe/Beneficiário Clica em limpar campos.</t>
   </si>
   <si>
     <t>SYSTEM Apaga todas as seleções do usuário.</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Escolhe o tipo de viagem nacional - fora do estado (interestadual).</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a opção escolhida: viagem nacional - fora do estado (interestadual).</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário Escolhe o estado.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a opção escolhida: estado.</t>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>SYSTEM Não confirma a existência de conta para recebimento de diárias do servidor. Exibe a mensagem de erro MSG002 - Conta para recebimento de diárias não cadastrada.</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a mensagem de erro MSG203 - Campos obrigatórios, MSG214 - Campos obrigatórios da solicitação de diárias (não informados).</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a mensagem de erro MSG202 - RGP Core indisponível.</t>
+  </si>
+  <si>
+    <t>TC8</t>
   </si>
   <si>
     <t>SYSTEM Exibe a mensagem de erro MSG204 - Conflito de duplicidade de diárias.</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>SYSTEM Não confirma a existência de conta para recebimento de diárias do servidor. Exibe a mensagem de erro MSG002 - Conta para recebimento de diárias não cadastrada.</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a mensagem de erro MSG202 - RGP Core indisponível.</t>
-  </si>
-  <si>
-    <t>TC6</t>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
   </si>
   <si>
     <t>SYSTEM Exibe a mensagem de erro MSG201 - DNE indisponível.</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a mensagem de erro MSG203 - Campos obrigatórios, MSG214 - Campos obrigatórios da solicitação de diárias (não informados).</t>
-  </si>
-  <si>
-    <t>TC8</t>
   </si>
 </sst>
 </file>
@@ -447,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -884,130 +899,130 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="8">
+      <c r="A24" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="B24" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B24" t="s" s="8">
+      <c r="C24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="C24" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25"/>
+      <c r="E24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="26"/>
-    <row r="27">
-      <c r="A27" t="s" s="4">
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B27" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s" s="4">
+      <c r="B28" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D27" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s" s="4">
+      <c r="D28" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F27" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="9">
+      <c r="F28" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B28" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s" s="9">
+      <c r="B29" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F28" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="8">
+      <c r="F29" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B29" t="s" s="8">
+      <c r="B30" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C29" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="5">
+      <c r="C30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B31" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C31" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D31" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E30" t="s" s="5">
+      <c r="E31" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F31" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C31" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E31" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B32" t="s" s="7">
         <v>58</v>
@@ -1027,16 +1042,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D33" t="s" s="7">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s" s="6">
         <v>2</v>
@@ -1047,16 +1062,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D34" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s" s="6">
         <v>2</v>
@@ -1067,16 +1082,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s" s="6">
         <v>2</v>
@@ -1087,16 +1102,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D36" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s" s="6">
         <v>2</v>
@@ -1107,16 +1122,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D37" t="s" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s" s="6">
         <v>2</v>
@@ -1127,16 +1142,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="10">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -1147,16 +1162,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="10">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>2</v>
@@ -1167,16 +1182,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="10">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D40" t="s" s="7">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s" s="6">
         <v>2</v>
@@ -1187,16 +1202,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="10">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1207,178 +1222,178 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B42" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43"/>
-    <row r="44"/>
+      <c r="B43" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="45">
-      <c r="A45" t="s" s="4">
+      <c r="A45" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="B48" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D45" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="4">
+      <c r="D48" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F45" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="9">
+      <c r="F48" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="9">
+      <c r="B49" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F46" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="8">
+      <c r="F49" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B47" t="s" s="8">
+      <c r="B50" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="5">
+      <c r="C50" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B51" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C48" t="s" s="5">
+      <c r="C51" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D48" t="s" s="5">
+      <c r="D51" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E48" t="s" s="5">
+      <c r="E51" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F51" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B49" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="E49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B50" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="C50" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="E50" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B51" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1389,16 +1404,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D53" t="s" s="7">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s" s="6">
         <v>2</v>
@@ -1409,16 +1424,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D54" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s" s="6">
         <v>2</v>
@@ -1429,16 +1444,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D55" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s" s="6">
         <v>2</v>
@@ -1449,16 +1464,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D56" t="s" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s" s="6">
         <v>2</v>
@@ -1469,16 +1484,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D57" t="s" s="7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s" s="6">
         <v>2</v>
@@ -1489,16 +1504,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="10">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s" s="6">
         <v>2</v>
@@ -1509,16 +1524,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D59" t="s" s="7">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s" s="6">
         <v>2</v>
@@ -1529,16 +1544,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="10">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D60" t="s" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s" s="6">
         <v>2</v>
@@ -1549,178 +1564,178 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B61" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B62" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="10">
         <v>13.0</v>
       </c>
-      <c r="B61" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C61" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s" s="7">
+      <c r="B64" t="s" s="7">
         <v>70</v>
       </c>
-      <c r="E61" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64">
-      <c r="A64" t="s" s="4">
+      <c r="C64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="E64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B64" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="C64" t="s" s="4">
+      <c r="B67" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D64" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s" s="4">
+      <c r="D67" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F64" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="9">
+      <c r="F67" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B65" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s" s="9">
+      <c r="B68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F65" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="8">
+      <c r="F68" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B66" t="s" s="8">
+      <c r="B69" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="5">
+      <c r="C69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B67" t="s" s="5">
+      <c r="B70" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C67" t="s" s="5">
+      <c r="C70" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D67" t="s" s="5">
+      <c r="D70" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E67" t="s" s="5">
+      <c r="E70" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F67" t="s" s="5">
+      <c r="F70" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B70" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1731,16 +1746,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1751,16 +1766,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1771,16 +1786,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>2</v>
@@ -1791,16 +1806,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D75" t="s" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s" s="6">
         <v>2</v>
@@ -1811,16 +1826,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1831,16 +1846,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1851,158 +1866,158 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B78" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83">
+      <c r="A83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B81" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="C81" t="s" s="4">
+      <c r="B83" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D81" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s" s="4">
+      <c r="D83" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F81" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="9">
+      <c r="F83" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="9">
+      <c r="B84" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F82" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="8">
+      <c r="F84" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B83" t="s" s="8">
+      <c r="B85" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="5">
+      <c r="C85" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B84" t="s" s="5">
+      <c r="B86" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C84" t="s" s="5">
+      <c r="C86" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D84" t="s" s="5">
+      <c r="D86" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E84" t="s" s="5">
+      <c r="E86" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F84" t="s" s="5">
+      <c r="F86" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B86" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -2013,16 +2028,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D88" t="s" s="7">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E88" t="s" s="6">
         <v>2</v>
@@ -2033,16 +2048,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>2</v>
@@ -2053,16 +2068,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D90" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s" s="6">
         <v>2</v>
@@ -2073,16 +2088,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B91" t="s" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s" s="6">
         <v>2</v>
@@ -2093,16 +2108,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n" s="10">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D92" t="s" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s" s="6">
         <v>2</v>
@@ -2113,16 +2128,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="10">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B93" t="s" s="7">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D93" t="s" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s" s="6">
         <v>2</v>
@@ -2133,16 +2148,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n" s="10">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B94" t="s" s="7">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D94" t="s" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s" s="6">
         <v>2</v>
@@ -2153,16 +2168,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2173,240 +2188,278 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B96" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="E96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97"/>
-    <row r="98"/>
+      <c r="B98" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="99">
-      <c r="A99" t="s" s="4">
+      <c r="A99" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="E99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102">
+      <c r="A102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B99" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="C99" t="s" s="4">
+      <c r="B102" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="C102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D99" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s" s="4">
+      <c r="D102" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F99" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="9">
+      <c r="F102" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B100" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E100" t="s" s="9">
+      <c r="B103" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F100" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="8">
+      <c r="F103" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B101" t="s" s="8">
+      <c r="B104" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C101" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F101" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="5">
+      <c r="C104" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B102" t="s" s="5">
+      <c r="B105" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C102" t="s" s="5">
+      <c r="C105" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D102" t="s" s="5">
+      <c r="D105" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E102" t="s" s="5">
+      <c r="E105" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F102" t="s" s="5">
+      <c r="F105" t="s" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n" s="10">
+    <row r="106">
+      <c r="A106" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="B103" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="C103" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="E103" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F103" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n" s="10">
+      <c r="B106" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="10">
         <v>2.0</v>
       </c>
-      <c r="B104" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="C104" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="E104" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F104" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107">
-      <c r="A107" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B107" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="C107" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D107" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F107" t="s" s="4">
+      <c r="B107" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B108" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E108" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F108" t="s" s="9">
+      <c r="A108" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B108" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B109" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C109" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F109" t="s" s="8">
+      <c r="A109" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B109" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B110" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C110" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D110" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E110" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F110" t="s" s="5">
-        <v>25</v>
+      <c r="A110" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B110" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E110" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s" s="6">
         <v>2</v>
@@ -2417,16 +2470,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B112" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D112" t="s" s="7">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E112" t="s" s="6">
         <v>2</v>
@@ -2437,16 +2490,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B113" t="s" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E113" t="s" s="6">
         <v>2</v>
@@ -2457,16 +2510,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B114" t="s" s="7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D114" t="s" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E114" t="s" s="6">
         <v>2</v>
@@ -2477,16 +2530,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="10">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B115" t="s" s="7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D115" t="s" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E115" t="s" s="6">
         <v>2</v>
@@ -2497,16 +2550,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n" s="10">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B116" t="s" s="7">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D116" t="s" s="7">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E116" t="s" s="6">
         <v>2</v>
@@ -2517,16 +2570,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n" s="10">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="B117" t="s" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C117" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D117" t="s" s="7">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E117" t="s" s="6">
         <v>2</v>
@@ -2537,16 +2590,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n" s="10">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="B118" t="s" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D118" t="s" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E118" t="s" s="6">
         <v>2</v>
@@ -2557,16 +2610,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="10">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="B119" t="s" s="7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C119" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D119" t="s" s="7">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E119" t="s" s="6">
         <v>2</v>
@@ -2575,160 +2628,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B120" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C120" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="E120" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F120" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B121" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="C121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F121" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="120"/>
+    <row r="121"/>
     <row r="122">
-      <c r="A122" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B122" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="E122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123"/>
-    <row r="124"/>
+      <c r="A122" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="C122" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F123" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B124" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="125">
-      <c r="A125" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B125" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="C125" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F125" t="s" s="4">
-        <v>2</v>
+      <c r="A125" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E125" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B126" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C126" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F126" t="s" s="9">
+      <c r="A126" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B127" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C127" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E127" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F127" t="s" s="8">
+      <c r="A127" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B127" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B128" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C128" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D128" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E128" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F128" t="s" s="5">
-        <v>25</v>
+      <c r="A128" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B128" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B129" t="s" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D129" t="s" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E129" t="s" s="6">
         <v>2</v>
@@ -2739,16 +2792,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B130" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C130" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E130" t="s" s="6">
         <v>2</v>
@@ -2759,16 +2812,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B131" t="s" s="7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D131" t="s" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E131" t="s" s="6">
         <v>2</v>
@@ -2779,16 +2832,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B132" t="s" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D132" t="s" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E132" t="s" s="6">
         <v>2</v>
@@ -2799,16 +2852,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n" s="10">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B133" t="s" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D133" t="s" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E133" t="s" s="6">
         <v>2</v>
@@ -2819,16 +2872,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n" s="10">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B134" t="s" s="7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D134" t="s" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E134" t="s" s="6">
         <v>2</v>
@@ -2839,16 +2892,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n" s="10">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="B135" t="s" s="7">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D135" t="s" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E135" t="s" s="6">
         <v>2</v>
@@ -2859,16 +2912,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n" s="10">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="B136" t="s" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C136" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D136" t="s" s="7">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E136" t="s" s="6">
         <v>2</v>
@@ -2879,81 +2932,1129 @@
     </row>
     <row r="137">
       <c r="A137" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B137" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C137" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="E137" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140">
+      <c r="A140" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="C140" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F141" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C142" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C143" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D143" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E143" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F143" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B144" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C144" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="E144" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B145" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="C145" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="E145" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B146" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C146" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B147" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B148" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C148" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E148" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B149" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E149" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B150" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C150" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E150" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B151" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C151" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E151" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="10">
         <v>9.0</v>
       </c>
-      <c r="B137" t="s" s="7">
+      <c r="B152" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C152" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E152" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B153" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C153" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E153" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B154" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C154" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E154" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B155" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C155" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E155" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B156" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C156" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="E156" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159">
+      <c r="A159" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C159" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F159" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B162" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C162" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E162" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F162" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B163" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C163" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="E163" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B164" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="C164" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="E164" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B165" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C165" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B166" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E166" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B167" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C167" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E167" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B168" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C168" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E168" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F168" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B169" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C169" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E169" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B170" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C137" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s" s="7">
+      <c r="C170" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="E137" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F137" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n" s="10">
+      <c r="E170" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B171" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C171" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E171" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="10">
         <v>10.0</v>
       </c>
-      <c r="B138" t="s" s="7">
+      <c r="B172" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C172" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E172" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B173" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C173" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E173" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B174" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C174" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="E174" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177">
+      <c r="A177" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="C177" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C179" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D180" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E180" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F180" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B181" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C181" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E181" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F181" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B182" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C182" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E182" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F182" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B183" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C183" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E183" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B184" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C184" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E184" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B185" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C185" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E185" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B186" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C186" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E186" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F186" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B187" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C187" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E187" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B188" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C188" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E188" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B189" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C189" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E189" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B190" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="C138" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D138" t="s" s="7">
+      <c r="C190" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="E138" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F138" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n" s="10">
+      <c r="E190" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n" s="10">
         <v>11.0</v>
       </c>
-      <c r="B139" t="s" s="7">
+      <c r="B191" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="C139" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="E139" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F139" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n" s="10">
+      <c r="C191" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E191" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B140" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="C140" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="E140" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F140" t="s" s="6">
+      <c r="B192" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C192" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="E192" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195">
+      <c r="A195" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="C195" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F195" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F196" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C198" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D198" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E198" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F198" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B199" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C199" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="E199" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B200" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C200" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="E200" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2962,21 +4063,28 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:F197"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
